--- a/09_IMA/MORGAN/Results/results_RQ3/Conf33/CAEX/results_RQ3.xlsx
+++ b/09_IMA/MORGAN/Results/results_RQ3/Conf33/CAEX/results_RQ3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_IST\09_IMA\MORGAN\Results\results_RQ3\CAEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_IST\09_IMA\MORGAN\Results\results_RQ3\Conf33\CAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ADAF3B-73ED-432E-9C52-E4EA92E3F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D489E-1E21-49F5-BFBB-F6D443A7060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2036,7 +2036,8 @@
         <c:axId val="1098505615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2721,7 +2722,8 @@
         <c:axId val="1098505615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5706,7 +5708,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
